--- a/output/Table_11.xlsx
+++ b/output/Table_11.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\narrative_conservatism\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7046A6E-E922-4FD9-94DA-976CE60F989E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AFA290-5444-4133-9F3B-44C70F4E864A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HILO_10Q" sheetId="1" r:id="rId1"/>
-    <sheet name="Triple_10Q" sheetId="3" r:id="rId2"/>
-    <sheet name="HILO_8K" sheetId="5" r:id="rId3"/>
-    <sheet name="Triple_8K" sheetId="6" r:id="rId4"/>
-    <sheet name="Quantile" sheetId="7" r:id="rId5"/>
+    <sheet name="HILO_10Q_CONS" sheetId="1" r:id="rId1"/>
+    <sheet name="HILO_10Q_UCONS" sheetId="8" r:id="rId2"/>
+    <sheet name="Triple_10Q" sheetId="3" r:id="rId3"/>
+    <sheet name="HILO_8K" sheetId="5" r:id="rId4"/>
+    <sheet name="Triple_8K" sheetId="6" r:id="rId5"/>
+    <sheet name="Quantile" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="984">
   <si>
     <t/>
   </si>
@@ -2271,6 +2272,711 @@
   </si>
   <si>
     <t>23,922</t>
+  </si>
+  <si>
+    <t>NW_LOW_CCONS</t>
+  </si>
+  <si>
+    <t>UCONS</t>
+  </si>
+  <si>
+    <t>0.150***</t>
+  </si>
+  <si>
+    <t>0.137***</t>
+  </si>
+  <si>
+    <t>0.123**</t>
+  </si>
+  <si>
+    <t>0.164***</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>(3.86)</t>
+  </si>
+  <si>
+    <t>(2.61)</t>
+  </si>
+  <si>
+    <t>(2.46)</t>
+  </si>
+  <si>
+    <t>(3.51)</t>
+  </si>
+  <si>
+    <t>(1.05)</t>
+  </si>
+  <si>
+    <t>2.734***</t>
+  </si>
+  <si>
+    <t>3.044***</t>
+  </si>
+  <si>
+    <t>1.695*</t>
+  </si>
+  <si>
+    <t>2.200***</t>
+  </si>
+  <si>
+    <t>1.088*</t>
+  </si>
+  <si>
+    <t>(1.76)</t>
+  </si>
+  <si>
+    <t>(2.69)</t>
+  </si>
+  <si>
+    <t>-0.967*</t>
+  </si>
+  <si>
+    <t>-0.260</t>
+  </si>
+  <si>
+    <t>-1.251</t>
+  </si>
+  <si>
+    <t>-0.437</t>
+  </si>
+  <si>
+    <t>-0.388</t>
+  </si>
+  <si>
+    <t>(-1.57)</t>
+  </si>
+  <si>
+    <t>(-0.60)</t>
+  </si>
+  <si>
+    <t>10,350</t>
+  </si>
+  <si>
+    <t>10,227</t>
+  </si>
+  <si>
+    <t>10,161</t>
+  </si>
+  <si>
+    <t>10,205</t>
+  </si>
+  <si>
+    <t>10,372</t>
+  </si>
+  <si>
+    <t>-0.075***</t>
+  </si>
+  <si>
+    <t>-0.056**</t>
+  </si>
+  <si>
+    <t>-0.057***</t>
+  </si>
+  <si>
+    <t>-0.053***</t>
+  </si>
+  <si>
+    <t>-1.309***</t>
+  </si>
+  <si>
+    <t>-0.108</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>-0.261</t>
+  </si>
+  <si>
+    <t>-0.137</t>
+  </si>
+  <si>
+    <t>-0.508**</t>
+  </si>
+  <si>
+    <t>(-3.82)</t>
+  </si>
+  <si>
+    <t>(-2.55)</t>
+  </si>
+  <si>
+    <t>(-4.17)</t>
+  </si>
+  <si>
+    <t>(-3.18)</t>
+  </si>
+  <si>
+    <t>(-5.00)</t>
+  </si>
+  <si>
+    <t>(-0.36)</t>
+  </si>
+  <si>
+    <t>(-1.89)</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>(0.79)</t>
+  </si>
+  <si>
+    <t>(-1.08)</t>
+  </si>
+  <si>
+    <t>(-2.23)</t>
+  </si>
+  <si>
+    <t>-0.009*</t>
+  </si>
+  <si>
+    <t>-0.008*</t>
+  </si>
+  <si>
+    <t>-0.090</t>
+  </si>
+  <si>
+    <t>-0.118*</t>
+  </si>
+  <si>
+    <t>-0.022</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.088*</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>(-1.22)</t>
+  </si>
+  <si>
+    <t>(-1.88)</t>
+  </si>
+  <si>
+    <t>(-1.44)</t>
+  </si>
+  <si>
+    <t>(-1.90)</t>
+  </si>
+  <si>
+    <t>(-0.25)</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
+  </si>
+  <si>
+    <t>(1.68)</t>
+  </si>
+  <si>
+    <t>(1.13)</t>
+  </si>
+  <si>
+    <t>(0.90)</t>
+  </si>
+  <si>
+    <t>0.153***</t>
+  </si>
+  <si>
+    <t>0.056**</t>
+  </si>
+  <si>
+    <t>0.109***</t>
+  </si>
+  <si>
+    <t>0.087***</t>
+  </si>
+  <si>
+    <t>2.833***</t>
+  </si>
+  <si>
+    <t>0.834**</t>
+  </si>
+  <si>
+    <t>1.443***</t>
+  </si>
+  <si>
+    <t>0.784*</t>
+  </si>
+  <si>
+    <t>-0.929**</t>
+  </si>
+  <si>
+    <t>-0.075</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>(5.37)</t>
+  </si>
+  <si>
+    <t>(2.11)</t>
+  </si>
+  <si>
+    <t>(3.56)</t>
+  </si>
+  <si>
+    <t>(3.09)</t>
+  </si>
+  <si>
+    <t>(6.68)</t>
+  </si>
+  <si>
+    <t>(3.13)</t>
+  </si>
+  <si>
+    <t>(1.70)</t>
+  </si>
+  <si>
+    <t>(-0.21)</t>
+  </si>
+  <si>
+    <t>(1.03)</t>
+  </si>
+  <si>
+    <t>-0.045***</t>
+  </si>
+  <si>
+    <t>0.477**</t>
+  </si>
+  <si>
+    <t>0.590***</t>
+  </si>
+  <si>
+    <t>-0.220*</t>
+  </si>
+  <si>
+    <t>-0.228</t>
+  </si>
+  <si>
+    <t>(-4.47)</t>
+  </si>
+  <si>
+    <t>(-1.65)</t>
+  </si>
+  <si>
+    <t>(3.23)</t>
+  </si>
+  <si>
+    <t>(-1.70)</t>
+  </si>
+  <si>
+    <t>(-1.55)</t>
+  </si>
+  <si>
+    <t>0.006***</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>-0.041</t>
+  </si>
+  <si>
+    <t>-0.017</t>
+  </si>
+  <si>
+    <t>(3.27)</t>
+  </si>
+  <si>
+    <t>(1.48)</t>
+  </si>
+  <si>
+    <t>(1.17)</t>
+  </si>
+  <si>
+    <t>(-1.62)</t>
+  </si>
+  <si>
+    <t>-0.398***</t>
+  </si>
+  <si>
+    <t>-0.231***</t>
+  </si>
+  <si>
+    <t>-1.981**</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>1.664***</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>(-7.43)</t>
+  </si>
+  <si>
+    <t>(-4.79)</t>
+  </si>
+  <si>
+    <t>(-2.08)</t>
+  </si>
+  <si>
+    <t>(0.70)</t>
+  </si>
+  <si>
+    <t>(3.15)</t>
+  </si>
+  <si>
+    <t>(0.60)</t>
+  </si>
+  <si>
+    <t>0.860***</t>
+  </si>
+  <si>
+    <t>0.395***</t>
+  </si>
+  <si>
+    <t>20.216***</t>
+  </si>
+  <si>
+    <t>12.688***</t>
+  </si>
+  <si>
+    <t>-8.175***</t>
+  </si>
+  <si>
+    <t>-6.029***</t>
+  </si>
+  <si>
+    <t>(7.04)</t>
+  </si>
+  <si>
+    <t>(2.65)</t>
+  </si>
+  <si>
+    <t>(9.57)</t>
+  </si>
+  <si>
+    <t>(4.35)</t>
+  </si>
+  <si>
+    <t>(-6.53)</t>
+  </si>
+  <si>
+    <t>(-3.84)</t>
+  </si>
+  <si>
+    <t>-0.219***</t>
+  </si>
+  <si>
+    <t>-3.328***</t>
+  </si>
+  <si>
+    <t>-2.085***</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>(-5.18)</t>
+  </si>
+  <si>
+    <t>(-5.10)</t>
+  </si>
+  <si>
+    <t>(0.92)</t>
+  </si>
+  <si>
+    <t>(1.37)</t>
+  </si>
+  <si>
+    <t>-0.443**</t>
+  </si>
+  <si>
+    <t>-0.269</t>
+  </si>
+  <si>
+    <t>-7.331***</t>
+  </si>
+  <si>
+    <t>-4.353</t>
+  </si>
+  <si>
+    <t>3.816**</t>
+  </si>
+  <si>
+    <t>6.975***</t>
+  </si>
+  <si>
+    <t>(-2.25)</t>
+  </si>
+  <si>
+    <t>(-2.68)</t>
+  </si>
+  <si>
+    <t>(-1.18)</t>
+  </si>
+  <si>
+    <t>(4.23)</t>
+  </si>
+  <si>
+    <t>0.056***</t>
+  </si>
+  <si>
+    <t>0.047***</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>-0.245</t>
+  </si>
+  <si>
+    <t>-0.607***</t>
+  </si>
+  <si>
+    <t>(2.90)</t>
+  </si>
+  <si>
+    <t>(0.27)</t>
+  </si>
+  <si>
+    <t>(0.28)</t>
+  </si>
+  <si>
+    <t>(-1.23)</t>
+  </si>
+  <si>
+    <t>-0.035**</t>
+  </si>
+  <si>
+    <t>0.573*</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>(-2.33)</t>
+  </si>
+  <si>
+    <t>(1.94)</t>
+  </si>
+  <si>
+    <t>(0.68)</t>
+  </si>
+  <si>
+    <t>0.031**</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>-0.422**</t>
+  </si>
+  <si>
+    <t>-0.631***</t>
+  </si>
+  <si>
+    <t>(2.38)</t>
+  </si>
+  <si>
+    <t>(2.29)</t>
+  </si>
+  <si>
+    <t>(-2.37)</t>
+  </si>
+  <si>
+    <t>(-3.15)</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>-1.554</t>
+  </si>
+  <si>
+    <t>-8.674***</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>1.979*</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>(-3.73)</t>
+  </si>
+  <si>
+    <t>(1.67)</t>
+  </si>
+  <si>
+    <t>0.179**</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>2.890**</t>
+  </si>
+  <si>
+    <t>5.132*</t>
+  </si>
+  <si>
+    <t>-4.192***</t>
+  </si>
+  <si>
+    <t>-5.974***</t>
+  </si>
+  <si>
+    <t>(2.51)</t>
+  </si>
+  <si>
+    <t>(1.11)</t>
+  </si>
+  <si>
+    <t>(2.00)</t>
+  </si>
+  <si>
+    <t>(1.69)</t>
+  </si>
+  <si>
+    <t>(-2.75)</t>
+  </si>
+  <si>
+    <t>-9.405***</t>
+  </si>
+  <si>
+    <t>-9.467***</t>
+  </si>
+  <si>
+    <t>-9.352***</t>
+  </si>
+  <si>
+    <t>-9.609***</t>
+  </si>
+  <si>
+    <t>-9.842***</t>
+  </si>
+  <si>
+    <t>-13.957***</t>
+  </si>
+  <si>
+    <t>-9.432***</t>
+  </si>
+  <si>
+    <t>-15.493***</t>
+  </si>
+  <si>
+    <t>36.250***</t>
+  </si>
+  <si>
+    <t>39.949***</t>
+  </si>
+  <si>
+    <t>35.892***</t>
+  </si>
+  <si>
+    <t>43.190***</t>
+  </si>
+  <si>
+    <t>(-3,141.44)</t>
+  </si>
+  <si>
+    <t>(-54.16)</t>
+  </si>
+  <si>
+    <t>(-4,230.24)</t>
+  </si>
+  <si>
+    <t>(-60.38)</t>
+  </si>
+  <si>
+    <t>(-233.99)</t>
+  </si>
+  <si>
+    <t>(-4.46)</t>
+  </si>
+  <si>
+    <t>(-177.39)</t>
+  </si>
+  <si>
+    <t>(-6.25)</t>
+  </si>
+  <si>
+    <t>(941.87)</t>
+  </si>
+  <si>
+    <t>(20.27)</t>
+  </si>
+  <si>
+    <t>(1,108.97)</t>
+  </si>
+  <si>
+    <t>(18.71)</t>
+  </si>
+  <si>
+    <t>26,515</t>
+  </si>
+  <si>
+    <t>26,465</t>
+  </si>
+  <si>
+    <t>0.807</t>
+  </si>
+  <si>
+    <t>0.814</t>
+  </si>
+  <si>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.680</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.729</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.690</t>
+  </si>
+  <si>
+    <t>NW_LOW_UCONS</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +3146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2626,8 +3332,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2771,6 +3483,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2817,7 +3547,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2856,15 +3586,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3224,7 +3964,1636 @@
   <dimension ref="A2:M42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:M10"/>
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="13" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F6D692-EE33-44B5-8895-8BF17F12DF5C}">
+  <dimension ref="A2:M42"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3234,1611 +5603,1611 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="A4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>33</v>
+      <c r="B5" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>236</v>
+      <c r="L32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>239</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>251</v>
+      <c r="B33" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>263</v>
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4" t="s">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>264</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>266</v>
+      <c r="B36" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>267</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>279</v>
+      <c r="B37" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>280</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M38" s="4" t="s">
+      <c r="B38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" s="12" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>282</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M39" s="4" t="s">
+      <c r="B39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" s="12" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M40" s="6" t="s">
+      <c r="B40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" s="28" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="7" t="s">
+      <c r="A42" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4847,12 +7216,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G50"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5957,12 +8326,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:M10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6929,12 +9298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G18"/>
+      <selection activeCell="G18" sqref="B17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7671,12 +10040,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFDDB9C-AC5A-4003-97F1-F18096A5C17F}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7688,25 +10057,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="H1" s="20" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="H1" s="29" t="s">
         <v>691</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -7926,7 +10295,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="12" t="s">
         <v>719</v>
       </c>
@@ -7942,7 +10311,7 @@
       <c r="F8" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="12" t="s">
         <v>685</v>
       </c>
@@ -7978,7 +10347,7 @@
       <c r="F10" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="20"/>
       <c r="H10" t="s">
         <v>264</v>
       </c>
@@ -8017,7 +10386,7 @@
       <c r="F11" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="20"/>
       <c r="H11" t="s">
         <v>735</v>
       </c>
@@ -8056,7 +10425,7 @@
       <c r="F12" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="H12" t="s">
         <v>572</v>
       </c>
@@ -8095,7 +10464,7 @@
       <c r="F13" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="20"/>
       <c r="H13" t="s">
         <v>282</v>
       </c>
@@ -8134,7 +10503,7 @@
       <c r="F14" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="13" t="s">
         <v>283</v>
       </c>
@@ -8155,12 +10524,257 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="G15" s="23"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="18">
+      <c r="A16" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>703</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="19"/>
+      <c r="B19" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>678</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="19"/>
+      <c r="B21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>679</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="22"/>
+      <c r="B23" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>735</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
